--- a/users.xlsx
+++ b/users.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>fullName</t>
   </si>
@@ -35,9 +35,6 @@
     <t>categories_array</t>
   </si>
   <si>
-    <t>userId</t>
-  </si>
-  <si>
     <t>eventIds_array</t>
   </si>
   <si>
@@ -105,6 +102,30 @@
   </si>
   <si>
     <t>5a847edee5847831acb269ae</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>aa847edee5847831acb269a4</t>
+  </si>
+  <si>
+    <t>aa847edee5847831acb269a7</t>
+  </si>
+  <si>
+    <t>aa847edee5847831acb269a8</t>
+  </si>
+  <si>
+    <t>aa847edee5847831acb269a9</t>
+  </si>
+  <si>
+    <t>aa847edee5847831acb269a5</t>
+  </si>
+  <si>
+    <t>aa847edee5847831acb269a6</t>
+  </si>
+  <si>
+    <t>aa847edee5847831acb269aa</t>
   </si>
 </sst>
 </file>
@@ -459,7 +480,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,6 +488,7 @@
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="3" max="3" width="26.140625" customWidth="1"/>
     <col min="4" max="4" width="51.7109375" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -480,114 +502,136 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/users.xlsx
+++ b/users.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>fullName</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>aa847edee5847831acb269aa</t>
+  </si>
+  <si>
+    <t>ICENumbers_array</t>
   </si>
 </sst>
 </file>
@@ -161,8 +164,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B604A18-72E1-4C03-B500-60F02026B4DC}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,9 +493,10 @@
     <col min="3" max="3" width="26.140625" customWidth="1"/>
     <col min="4" max="4" width="51.7109375" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="7" max="7" width="52.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,8 +515,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -527,8 +535,11 @@
       <c r="E2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -544,8 +555,11 @@
       <c r="E3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -561,8 +575,11 @@
       <c r="E4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -578,8 +595,11 @@
       <c r="E5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -595,8 +615,11 @@
       <c r="E6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -612,8 +635,11 @@
       <c r="E7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -628,6 +654,9 @@
       </c>
       <c r="E8" t="s">
         <v>33</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
